--- a/my_querys.xlsx
+++ b/my_querys.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -567,6 +567,24 @@
   </si>
   <si>
     <t xml:space="preserve">schlagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_20.27.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de - en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de - fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonjour</t>
   </si>
 </sst>
 </file>
@@ -2116,6 +2134,34 @@
         <v>184</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/my_querys.xlsx
+++ b/my_querys.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">schlagen</t>
   </si>
   <si>
-    <t xml:space="preserve">25.02.2025_20.27.55</t>
+    <t xml:space="preserve">25.02.2025_23.39.46</t>
   </si>
   <si>
     <t xml:space="preserve">de - en</t>
@@ -585,6 +585,27 @@
   </si>
   <si>
     <t xml:space="preserve">Bonjour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23.40.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entgeistert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aghast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23.41.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe die App zum laufen gebracht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got the app to work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai réussi à faire fonctionner l'application.</t>
   </si>
 </sst>
 </file>
@@ -2162,6 +2183,48 @@
         <v>190</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" t="s">
+        <v>192</v>
+      </c>
+      <c r="D90" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/my_querys.xlsx
+++ b/my_querys.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -606,6 +606,36 @@
   </si>
   <si>
     <t xml:space="preserve">J'ai réussi à faire fonctionner l'application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.13.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.40.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich bin durch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm through.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.51.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich tat es.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I did it.</t>
   </si>
 </sst>
 </file>
@@ -2225,6 +2255,62 @@
         <v>197</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/my_querys.xlsx
+++ b/my_querys.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -636,6 +636,579 @@
   </si>
   <si>
     <t xml:space="preserve">I did it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_11.42.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aufgeben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fähigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">able</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fähig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_11.42.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">über</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abroad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im Ausland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abwesenheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absorb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absorbieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstrakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">academy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akademie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accelerate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beschleunigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akzent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akzeptieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zugang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accompany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begleiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_11.42.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accomplish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erreichen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">achieve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acknowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anerkennen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acquire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erwerben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">across</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aktiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktivität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schauspieler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darstellerin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tatsächlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adapt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_11.42.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hinzufügen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Süchtiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angemessen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verwalten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bewundern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zugeben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorauszahlung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorteil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adventure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abenteuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_11.42.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advertise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">werben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beratung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beraten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aeroplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flugzeug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affäre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beeinflussen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leisten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afraid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">besorgt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afternoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachmittag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wieder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_11.42.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agentur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zustimmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landwirtschaft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aircraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flughafen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aisle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_11.42.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausländer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">align</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ausrichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gleich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lebendig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allocate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuteilen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erlauben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_11.42.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entlang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">already</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bereits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ändern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">although</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obwohl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Höhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amazing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ehrgeiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambitious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ehrgeizig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amüsieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_11.42.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analysieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uralt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Und</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wut</t>
   </si>
 </sst>
 </file>
@@ -2311,6 +2884,1308 @@
         <v>207</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>215</v>
+      </c>
+      <c r="D100" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>217</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>218</v>
+      </c>
+      <c r="D101" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>217</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>222</v>
+      </c>
+      <c r="D103" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>217</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>224</v>
+      </c>
+      <c r="D104" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>226</v>
+      </c>
+      <c r="D105" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>228</v>
+      </c>
+      <c r="D106" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>230</v>
+      </c>
+      <c r="D107" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>232</v>
+      </c>
+      <c r="D108" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>234</v>
+      </c>
+      <c r="D109" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>236</v>
+      </c>
+      <c r="D110" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>240</v>
+      </c>
+      <c r="D112" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>243</v>
+      </c>
+      <c r="D113" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>245</v>
+      </c>
+      <c r="D114" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>247</v>
+      </c>
+      <c r="D115" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>249</v>
+      </c>
+      <c r="D116" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>242</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>250</v>
+      </c>
+      <c r="D117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>252</v>
+      </c>
+      <c r="D118" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>254</v>
+      </c>
+      <c r="D119" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>242</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>255</v>
+      </c>
+      <c r="D120" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>257</v>
+      </c>
+      <c r="D121" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>259</v>
+      </c>
+      <c r="D122" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>261</v>
+      </c>
+      <c r="D123" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>263</v>
+      </c>
+      <c r="D124" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>242</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>265</v>
+      </c>
+      <c r="D125" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>267</v>
+      </c>
+      <c r="D126" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>269</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>270</v>
+      </c>
+      <c r="D127" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>269</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>272</v>
+      </c>
+      <c r="D128" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>269</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>269</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>276</v>
+      </c>
+      <c r="D130" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>269</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>278</v>
+      </c>
+      <c r="D131" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>280</v>
+      </c>
+      <c r="D132" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>281</v>
+      </c>
+      <c r="D133" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>283</v>
+      </c>
+      <c r="D134" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>285</v>
+      </c>
+      <c r="D135" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>287</v>
+      </c>
+      <c r="D136" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>289</v>
+      </c>
+      <c r="D137" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>291</v>
+      </c>
+      <c r="D138" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>293</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>294</v>
+      </c>
+      <c r="D139" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>293</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>296</v>
+      </c>
+      <c r="D140" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>293</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>298</v>
+      </c>
+      <c r="D141" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>293</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>300</v>
+      </c>
+      <c r="D142" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>293</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>302</v>
+      </c>
+      <c r="D143" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>293</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>304</v>
+      </c>
+      <c r="D144" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>293</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>306</v>
+      </c>
+      <c r="D145" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>308</v>
+      </c>
+      <c r="D146" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>310</v>
+      </c>
+      <c r="D147" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>312</v>
+      </c>
+      <c r="D148" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>314</v>
+      </c>
+      <c r="D149" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>293</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>316</v>
+      </c>
+      <c r="D150" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>318</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>319</v>
+      </c>
+      <c r="D151" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>318</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>321</v>
+      </c>
+      <c r="D152" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>318</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>323</v>
+      </c>
+      <c r="D153" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>318</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>325</v>
+      </c>
+      <c r="D154" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>318</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>327</v>
+      </c>
+      <c r="D155" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>329</v>
+      </c>
+      <c r="D156" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>318</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>331</v>
+      </c>
+      <c r="D157" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>318</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>333</v>
+      </c>
+      <c r="D158" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>318</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>335</v>
+      </c>
+      <c r="D159" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>336</v>
+      </c>
+      <c r="D160" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>338</v>
+      </c>
+      <c r="D161" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>340</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>341</v>
+      </c>
+      <c r="D162" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>340</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>343</v>
+      </c>
+      <c r="D163" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>340</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>345</v>
+      </c>
+      <c r="D164" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>347</v>
+      </c>
+      <c r="D165" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>340</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>349</v>
+      </c>
+      <c r="D166" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>340</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>351</v>
+      </c>
+      <c r="D167" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>340</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>353</v>
+      </c>
+      <c r="D168" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>340</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>355</v>
+      </c>
+      <c r="D169" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>340</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>357</v>
+      </c>
+      <c r="D170" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>359</v>
+      </c>
+      <c r="D171" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>361</v>
+      </c>
+      <c r="D172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>363</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>364</v>
+      </c>
+      <c r="D173" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>363</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>366</v>
+      </c>
+      <c r="D174" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>363</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>368</v>
+      </c>
+      <c r="D175" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>363</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>370</v>
+      </c>
+      <c r="D176" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>363</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>372</v>
+      </c>
+      <c r="D177" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>363</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>374</v>
+      </c>
+      <c r="D178" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>363</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>376</v>
+      </c>
+      <c r="D179" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>363</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>378</v>
+      </c>
+      <c r="D180" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>363</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>380</v>
+      </c>
+      <c r="D181" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>363</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>382</v>
+      </c>
+      <c r="D182" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>363</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>384</v>
+      </c>
+      <c r="D183" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>386</v>
+      </c>
+      <c r="D184" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>388</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>389</v>
+      </c>
+      <c r="D185" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>388</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>391</v>
+      </c>
+      <c r="D186" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>388</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>393</v>
+      </c>
+      <c r="D187" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>388</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>395</v>
+      </c>
+      <c r="D188" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>388</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>397</v>
+      </c>
+      <c r="D189" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/my_querys.xlsx
+++ b/my_querys.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -1209,6 +1209,24 @@
   </si>
   <si>
     <t xml:space="preserve">Wut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_12.26.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gepflügter Boden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plowed soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_12.32.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erlöscht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expired</t>
   </si>
 </sst>
 </file>
@@ -4186,6 +4204,34 @@
         <v>398</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>399</v>
+      </c>
+      <c r="B190" t="s">
+        <v>186</v>
+      </c>
+      <c r="C190" t="s">
+        <v>400</v>
+      </c>
+      <c r="D190" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>402</v>
+      </c>
+      <c r="B191" t="s">
+        <v>186</v>
+      </c>
+      <c r="C191" t="s">
+        <v>403</v>
+      </c>
+      <c r="D191" t="s">
+        <v>404</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/my_querys.xlsx
+++ b/my_querys.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -1227,6 +1227,48 @@
   </si>
   <si>
     <t xml:space="preserve">expired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_13.03.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erscheinen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14.51.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dagengenhalten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counteract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_15.12.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_15.13.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_15.33.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brow</t>
   </si>
 </sst>
 </file>
@@ -4232,6 +4274,76 @@
         <v>404</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>405</v>
+      </c>
+      <c r="B192" t="s">
+        <v>186</v>
+      </c>
+      <c r="C192" t="s">
+        <v>406</v>
+      </c>
+      <c r="D192" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>408</v>
+      </c>
+      <c r="B193" t="s">
+        <v>186</v>
+      </c>
+      <c r="C193" t="s">
+        <v>409</v>
+      </c>
+      <c r="D193" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>411</v>
+      </c>
+      <c r="B194" t="s">
+        <v>186</v>
+      </c>
+      <c r="C194" t="s">
+        <v>398</v>
+      </c>
+      <c r="D194" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>413</v>
+      </c>
+      <c r="B195" t="s">
+        <v>186</v>
+      </c>
+      <c r="C195" t="s">
+        <v>414</v>
+      </c>
+      <c r="D195" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>416</v>
+      </c>
+      <c r="B196" t="s">
+        <v>186</v>
+      </c>
+      <c r="C196" t="s">
+        <v>417</v>
+      </c>
+      <c r="D196" t="s">
+        <v>418</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/my_querys.xlsx
+++ b/my_querys.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="422">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -1269,6 +1269,15 @@
   </si>
   <si>
     <t xml:space="preserve">brow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_15.41.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gehör</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hearing</t>
   </si>
 </sst>
 </file>
@@ -4344,6 +4353,20 @@
         <v>418</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>419</v>
+      </c>
+      <c r="B197" t="s">
+        <v>186</v>
+      </c>
+      <c r="C197" t="s">
+        <v>420</v>
+      </c>
+      <c r="D197" t="s">
+        <v>421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
